--- a/public/assetListForm.xlsx
+++ b/public/assetListForm.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Song Kyung\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Song Kyung\Desktop\새 폴더\swcamp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0595D8F4-AD22-4D55-B252-F8A927C84572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8769A583-0238-415D-8002-3DCE2EFFF503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25710" yWindow="-2420" windowWidth="25820" windowHeight="15620" xr2:uid="{0B2300DC-06D2-4A3F-A8AC-B3150FA17B42}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{0B2300DC-06D2-4A3F-A8AC-B3150FA17B42}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>실사용자</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -551,7 +551,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -621,6 +621,30 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -653,35 +677,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -743,7 +747,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="244475" y="130175"/>
-          <a:ext cx="1028571" cy="342856"/>
+          <a:ext cx="1028571" cy="355556"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1055,23 +1059,23 @@
   <dimension ref="A1:L58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="13.5" style="39" customWidth="1"/>
-    <col min="2" max="2" width="16" style="39" customWidth="1"/>
-    <col min="3" max="3" width="20.5" style="39" customWidth="1"/>
-    <col min="4" max="4" width="16.25" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" style="39" customWidth="1"/>
-    <col min="6" max="6" width="9.625" style="39" customWidth="1"/>
-    <col min="7" max="7" width="22.875" style="40" customWidth="1"/>
-    <col min="8" max="9" width="9" style="39"/>
-    <col min="10" max="10" width="29.875" style="39" customWidth="1"/>
+    <col min="1" max="1" width="13.5" style="27" customWidth="1"/>
+    <col min="2" max="2" width="16" style="27" customWidth="1"/>
+    <col min="3" max="3" width="20.5" style="27" customWidth="1"/>
+    <col min="4" max="4" width="16.25" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="27" customWidth="1"/>
+    <col min="6" max="6" width="9.58203125" style="27" customWidth="1"/>
+    <col min="7" max="7" width="22.83203125" style="28" customWidth="1"/>
+    <col min="8" max="9" width="9" style="27"/>
+    <col min="10" max="10" width="29.83203125" style="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17.100000000000001" customHeight="1">
+    <row r="1" spans="1:12" ht="17.149999999999999" customHeight="1">
       <c r="A1" s="5"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -1107,7 +1111,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="11.1" customHeight="1">
+    <row r="3" spans="1:12" ht="11.15" customHeight="1">
       <c r="A3" s="8"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1125,19 +1129,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.6" customHeight="1">
-      <c r="A4" s="23" t="s">
+    <row r="4" spans="1:12" ht="15.65" customHeight="1">
+      <c r="A4" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="25"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="31"/>
       <c r="K4" s="16" t="s">
         <v>11</v>
       </c>
@@ -1145,17 +1149,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.6" customHeight="1">
-      <c r="A5" s="26"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="28"/>
+    <row r="5" spans="1:12" ht="15.65" customHeight="1">
+      <c r="A5" s="32"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="34"/>
       <c r="K5" s="16" t="s">
         <v>12</v>
       </c>
@@ -1163,7 +1167,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.6" customHeight="1">
+    <row r="6" spans="1:12" ht="15.65" customHeight="1">
       <c r="A6" s="10"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1171,8 +1175,8 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="19"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="30"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="36"/>
       <c r="J6" s="11" t="s">
         <v>22</v>
       </c>
@@ -1191,15 +1195,15 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="19"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="32"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="38"/>
       <c r="J7" s="11"/>
       <c r="K7" s="16" t="s">
         <v>14</v>
       </c>
       <c r="L7" s="16"/>
     </row>
-    <row r="8" spans="1:12" ht="15.95" customHeight="1">
+    <row r="8" spans="1:12" ht="16" customHeight="1">
       <c r="A8" s="12"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -1213,7 +1217,7 @@
       <c r="K8" s="16"/>
       <c r="L8" s="16"/>
     </row>
-    <row r="9" spans="1:12" ht="45.6" customHeight="1">
+    <row r="9" spans="1:12" ht="45.65" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
@@ -1247,618 +1251,616 @@
       <c r="K9" s="22"/>
       <c r="L9" s="22"/>
     </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="33" t="s">
+    <row r="10" spans="1:12" s="42" customFormat="1">
+      <c r="A10" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="33" t="s">
+      <c r="F10" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="34">
+      <c r="G10" s="40">
         <v>45034</v>
       </c>
-      <c r="H10" s="33" t="s">
+      <c r="H10" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="33" t="s">
+      <c r="I10" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="J10" s="33"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="35"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="35"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="35"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="35"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="35"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="35"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="35"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="35"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="35"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="35"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
+      <c r="A25" s="23"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="35"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="35"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
+      <c r="A27" s="23"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="35"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
+      <c r="A28" s="23"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="35"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
+      <c r="A29" s="23"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="35"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
+      <c r="A30" s="23"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="35"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
+      <c r="A31" s="23"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="35"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
+      <c r="A32" s="23"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="35"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="35"/>
-      <c r="J33" s="35"/>
+      <c r="A33" s="23"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="35"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
+      <c r="A34" s="23"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="35"/>
-      <c r="B35" s="35"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="35"/>
-      <c r="J35" s="35"/>
+      <c r="A35" s="23"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="35"/>
-      <c r="B36" s="35"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="35"/>
-      <c r="J36" s="35"/>
+      <c r="A36" s="23"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="35"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="35"/>
+      <c r="A37" s="23"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="35"/>
-      <c r="B38" s="35"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="35"/>
-      <c r="J38" s="35"/>
+      <c r="A38" s="23"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="35"/>
-      <c r="B39" s="35"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="35"/>
-      <c r="I39" s="35"/>
-      <c r="J39" s="35"/>
+      <c r="A39" s="23"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="23"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="35"/>
-      <c r="B40" s="35"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="35"/>
-      <c r="J40" s="35"/>
+      <c r="A40" s="23"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="35"/>
-      <c r="B41" s="35"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="35"/>
-      <c r="I41" s="35"/>
-      <c r="J41" s="35"/>
+      <c r="A41" s="23"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="35"/>
-      <c r="B42" s="35"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="35"/>
-      <c r="I42" s="35"/>
-      <c r="J42" s="35"/>
+      <c r="A42" s="23"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="23"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="35"/>
-      <c r="B43" s="35"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="35"/>
-      <c r="I43" s="35"/>
-      <c r="J43" s="35"/>
+      <c r="A43" s="23"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="35"/>
-      <c r="B44" s="35"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="35"/>
-      <c r="I44" s="35"/>
-      <c r="J44" s="35"/>
+      <c r="A44" s="23"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="23"/>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="35"/>
-      <c r="B45" s="35"/>
-      <c r="C45" s="35"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="36"/>
-      <c r="H45" s="35"/>
-      <c r="I45" s="35"/>
-      <c r="J45" s="35"/>
+      <c r="A45" s="23"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="23"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="35"/>
-      <c r="B46" s="35"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="36"/>
-      <c r="H46" s="35"/>
-      <c r="I46" s="35"/>
-      <c r="J46" s="35"/>
+      <c r="A46" s="23"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="23"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="35"/>
-      <c r="B47" s="35"/>
-      <c r="C47" s="35"/>
-      <c r="D47" s="35"/>
-      <c r="E47" s="35"/>
-      <c r="F47" s="35"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="35"/>
-      <c r="I47" s="35"/>
-      <c r="J47" s="35"/>
+      <c r="A47" s="23"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="23"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="35"/>
-      <c r="B48" s="35"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="35"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="35"/>
-      <c r="G48" s="36"/>
-      <c r="H48" s="35"/>
-      <c r="I48" s="35"/>
-      <c r="J48" s="35"/>
+      <c r="A48" s="23"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="23"/>
+      <c r="J48" s="23"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="35"/>
-      <c r="B49" s="35"/>
-      <c r="C49" s="35"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="35"/>
-      <c r="I49" s="35"/>
-      <c r="J49" s="35"/>
+      <c r="A49" s="23"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="23"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="23"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="35"/>
-      <c r="B50" s="35"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="35"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="35"/>
-      <c r="G50" s="36"/>
-      <c r="H50" s="35"/>
-      <c r="I50" s="35"/>
-      <c r="J50" s="35"/>
+      <c r="A50" s="23"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="23"/>
+      <c r="J50" s="23"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="35"/>
-      <c r="B51" s="35"/>
-      <c r="C51" s="35"/>
-      <c r="D51" s="35"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="35"/>
-      <c r="G51" s="36"/>
-      <c r="H51" s="35"/>
-      <c r="I51" s="35"/>
-      <c r="J51" s="35"/>
+      <c r="A51" s="23"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="23"/>
+      <c r="I51" s="23"/>
+      <c r="J51" s="23"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="35"/>
-      <c r="B52" s="35"/>
-      <c r="C52" s="35"/>
-      <c r="D52" s="35"/>
-      <c r="E52" s="35"/>
-      <c r="F52" s="35"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="35"/>
-      <c r="I52" s="35"/>
-      <c r="J52" s="35"/>
+      <c r="A52" s="23"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="23"/>
+      <c r="I52" s="23"/>
+      <c r="J52" s="23"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="35"/>
-      <c r="B53" s="35"/>
-      <c r="C53" s="35"/>
-      <c r="D53" s="35"/>
-      <c r="E53" s="35"/>
-      <c r="F53" s="35"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="35"/>
-      <c r="I53" s="35"/>
-      <c r="J53" s="35"/>
+      <c r="A53" s="23"/>
+      <c r="B53" s="23"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="23"/>
+      <c r="I53" s="23"/>
+      <c r="J53" s="23"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="35"/>
-      <c r="B54" s="35"/>
-      <c r="C54" s="35"/>
-      <c r="D54" s="35"/>
-      <c r="E54" s="35"/>
-      <c r="F54" s="35"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="35"/>
-      <c r="I54" s="35"/>
-      <c r="J54" s="35"/>
+      <c r="A54" s="23"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="24"/>
+      <c r="H54" s="23"/>
+      <c r="I54" s="23"/>
+      <c r="J54" s="23"/>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="35"/>
-      <c r="B55" s="35"/>
-      <c r="C55" s="35"/>
-      <c r="D55" s="35"/>
-      <c r="E55" s="35"/>
-      <c r="F55" s="35"/>
-      <c r="G55" s="36"/>
-      <c r="H55" s="35"/>
-      <c r="I55" s="35"/>
-      <c r="J55" s="35"/>
+      <c r="A55" s="23"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="23"/>
+      <c r="I55" s="23"/>
+      <c r="J55" s="23"/>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="35"/>
-      <c r="B56" s="35"/>
-      <c r="C56" s="35"/>
-      <c r="D56" s="35"/>
-      <c r="E56" s="35"/>
-      <c r="F56" s="35"/>
-      <c r="G56" s="36"/>
-      <c r="H56" s="35"/>
-      <c r="I56" s="35"/>
-      <c r="J56" s="35"/>
+      <c r="A56" s="23"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="23"/>
+      <c r="I56" s="23"/>
+      <c r="J56" s="23"/>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="35"/>
-      <c r="B57" s="35"/>
-      <c r="C57" s="35"/>
-      <c r="D57" s="35"/>
-      <c r="E57" s="35"/>
-      <c r="F57" s="35"/>
-      <c r="G57" s="36"/>
-      <c r="H57" s="35"/>
-      <c r="I57" s="35"/>
-      <c r="J57" s="35"/>
+      <c r="A57" s="23"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="23"/>
+      <c r="I57" s="23"/>
+      <c r="J57" s="23"/>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="35"/>
-      <c r="B58" s="35"/>
-      <c r="C58" s="35"/>
-      <c r="D58" s="35"/>
-      <c r="E58" s="35"/>
-      <c r="F58" s="35"/>
-      <c r="G58" s="36"/>
-      <c r="H58" s="35"/>
-      <c r="I58" s="35"/>
-      <c r="J58" s="35"/>
+      <c r="A58" s="23"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="24"/>
+      <c r="H58" s="23"/>
+      <c r="I58" s="23"/>
+      <c r="J58" s="23"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="sKBDgNQtT0BLt0MWd6mVzcJ2FIEbmmV9AikOouhSAo6Pp4UzRf7RBk2nUadY31mOiRQTSfJsXA6GC7rOLZZ2Vw==" saltValue="FDTLjYt+dixb183QMJd/xA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="FLKDCX/xGgnRR6t36/aclFodP56/5mahquOlBO9oMDz3PI+cwIlVEowRUpwPPWZuDHOO344LtyvCpV+foYYm9w==" saltValue="Jt8J4LZg7KbO9JNsGez2PQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="2">
     <mergeCell ref="A4:J5"/>
     <mergeCell ref="H6:I7"/>
